--- a/biology/Biologie cellulaire et moléculaire/Marqueur_de_poids_moléculaire/Marqueur_de_poids_moléculaire.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Marqueur_de_poids_moléculaire/Marqueur_de_poids_moléculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marqueur_de_poids_mol%C3%A9culaire</t>
+          <t>Marqueur_de_poids_moléculaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un marqueur de poids moléculaire est une solution de molécules d'ADN ou de protéines servant à déterminer le poids moléculaire de fragments d'ADN ou de protéine. Ils sont couramment utilisés dans les différents types d'électrophorèse (en gel d'agarose, gels SDS-PAGE, etc.).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marqueur_de_poids_mol%C3%A9culaire</t>
+          <t>Marqueur_de_poids_moléculaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce marqueur sert de référence pour estimer la taille (inconnue) des molécules d'intérêt. Les molécules présents dans le mélange utiliser, en général industriel, doit présenter des molécules de même nature que celle que l'on souhaite étudier (protéines, ADNdb, ADNsb..) et des tailles qui voisinent pour une part celle de la molécule étudiée.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marqueur_de_poids_mol%C3%A9culaire</t>
+          <t>Marqueur_de_poids_moléculaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marqueur_de_poids_mol%C3%A9culaire</t>
+          <t>Marqueur_de_poids_moléculaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,7 +584,9 @@
           <t>Marqueur de poids moléculaire protéique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Portail de la biochimie   Portail de la biologie cellulaire et moléculaire                    </t>
         </is>
